--- a/data/interim/economical/calibration_data/ERMG_temporary_unemployment.xlsx
+++ b/data/interim/economical/calibration_data/ERMG_temporary_unemployment.xlsx
@@ -232,6 +232,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -260,18 +261,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,11 +432,11 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE23" activeCellId="0" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -441,23 +445,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="47.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="41.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="49.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="36.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="29.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="36.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="28.48"/>
   </cols>
   <sheetData>
@@ -710,11 +714,11 @@
       <c r="AB2" s="2" t="n">
         <v>46.3874060841696</v>
       </c>
-      <c r="AD2" s="0" t="n">
-        <v>46</v>
+      <c r="AD2" s="2" t="n">
+        <v>49.2062337195724</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="2" t="n">
         <v>39.3278325618837</v>
@@ -829,11 +833,11 @@
       <c r="AB3" s="2" t="n">
         <v>40.9707593062606</v>
       </c>
-      <c r="AD3" s="0" t="n">
-        <v>39</v>
+      <c r="AD3" s="2" t="n">
+        <v>36.2801991262826</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="AF3" s="2" t="n">
         <v>83.8322147651007</v>
@@ -948,8 +952,8 @@
       <c r="AB4" s="2" t="n">
         <v>32.7475278542047</v>
       </c>
-      <c r="AD4" s="0" t="n">
-        <v>41</v>
+      <c r="AD4" s="2" t="n">
+        <v>39.7187289845326</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>41</v>
@@ -1067,11 +1071,11 @@
       <c r="AB5" s="2" t="n">
         <v>27.786044941653</v>
       </c>
-      <c r="AD5" s="0" t="n">
-        <v>40</v>
+      <c r="AD5" s="2" t="n">
+        <v>33.9697585195215</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF5" s="2" t="n">
         <v>47.7285129604366</v>
@@ -1186,11 +1190,11 @@
       <c r="AB6" s="2" t="n">
         <v>19.4637941352484</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <v>33.3</v>
+      <c r="AD6" s="2" t="n">
+        <v>28.2089723048753</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>33.3</v>
+        <v>36</v>
       </c>
       <c r="AF6" s="2" t="n">
         <v>85.2683896620278</v>
@@ -1305,8 +1309,8 @@
       <c r="AB7" s="2" t="n">
         <v>16.6987968662563</v>
       </c>
-      <c r="AD7" s="0" t="n">
-        <v>22.5</v>
+      <c r="AD7" s="2" t="n">
+        <v>28.9406925578726</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>22.5</v>
@@ -1424,11 +1428,11 @@
       <c r="AB8" s="2" t="n">
         <v>11.1446520910823</v>
       </c>
-      <c r="AD8" s="0" t="n">
-        <v>13.5</v>
+      <c r="AD8" s="2" t="n">
+        <v>18.5118959107807</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" s="2" t="n">
         <v>20.9970530451866</v>
@@ -1543,11 +1547,11 @@
       <c r="AB9" s="2" t="n">
         <v>4.03172687912556</v>
       </c>
-      <c r="AD9" s="0" t="n">
-        <v>15.3</v>
+      <c r="AD9" s="2" t="n">
+        <v>23.8415525970373</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>15.3</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>11.3009708737864</v>
@@ -1662,11 +1666,11 @@
       <c r="AB10" s="2" t="n">
         <v>2.5402331054578</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>11.3</v>
+      <c r="AD10" s="2" t="n">
+        <v>17.97997997998</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="2" t="n">
         <v>17.3093841642229</v>
@@ -1781,11 +1785,11 @@
       <c r="AB11" s="3" t="n">
         <v>3.12566817256958</v>
       </c>
-      <c r="AD11" s="0" t="n">
-        <v>3.33</v>
+      <c r="AD11" s="3" t="n">
+        <v>3.26595358955765</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="AF11" s="3" t="n">
         <v>2.88738019169329</v>
@@ -1900,11 +1904,11 @@
       <c r="AB12" s="3" t="n">
         <v>2.46416596814753</v>
       </c>
-      <c r="AD12" s="0" t="n">
-        <v>4.33</v>
+      <c r="AD12" s="3" t="n">
+        <v>4.25445705024311</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>4.33</v>
+        <v>0.5</v>
       </c>
       <c r="AF12" s="3" t="n">
         <v>8.63859516616314</v>
@@ -2019,11 +2023,11 @@
       <c r="AB13" s="3" t="n">
         <v>2.3671096345515</v>
       </c>
-      <c r="AD13" s="0" t="n">
-        <v>4.66</v>
+      <c r="AD13" s="3" t="n">
+        <v>6.0143286750398</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>4.66</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="3" t="n">
         <v>10.8547655068079</v>
@@ -2138,11 +2142,11 @@
       <c r="AB14" s="3" t="n">
         <v>4.35640606767795</v>
       </c>
-      <c r="AD14" s="0" t="n">
-        <v>18.66</v>
+      <c r="AD14" s="3" t="n">
+        <v>8.82039781591264</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>18.66</v>
+        <v>23.5</v>
       </c>
       <c r="AF14" s="3" t="n">
         <v>6.03728813559322</v>
@@ -2257,11 +2261,11 @@
       <c r="AB15" s="3" t="n">
         <v>2.18907579198583</v>
       </c>
-      <c r="AD15" s="0" t="n">
-        <v>11.66</v>
+      <c r="AD15" s="3" t="n">
+        <v>9.94964219454015</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>11.66</v>
+        <v>12.5</v>
       </c>
       <c r="AF15" s="3" t="n">
         <v>6.11378205128205</v>
@@ -2376,11 +2380,11 @@
       <c r="AB16" s="3" t="n">
         <v>1.90340358978178</v>
       </c>
-      <c r="AD16" s="0" t="n">
-        <v>4.33</v>
+      <c r="AD16" s="3" t="n">
+        <v>4.9629217059198</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AF16" s="3" t="n">
         <v>21.5538628944505</v>
@@ -2495,11 +2499,11 @@
       <c r="AB17" s="3" t="n">
         <v>2.02833251790241</v>
       </c>
-      <c r="AD17" s="0" t="n">
-        <v>6.66</v>
+      <c r="AD17" s="3" t="n">
+        <v>6.95749856897539</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>6.66</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" s="3" t="n">
         <v>5.90909090909091</v>
@@ -2614,11 +2618,11 @@
       <c r="AB18" s="3" t="n">
         <v>1.22086118839015</v>
       </c>
-      <c r="AD18" s="0" t="n">
-        <v>6</v>
+      <c r="AD18" s="3" t="n">
+        <v>5.91094295692666</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="3" t="n">
         <v>40.7352941176471</v>
@@ -2733,11 +2737,11 @@
       <c r="AB19" s="3" t="n">
         <v>0.929512122119126</v>
       </c>
-      <c r="AD19" s="0" t="n">
-        <v>9.66</v>
+      <c r="AD19" s="3" t="n">
+        <v>4.46484549932826</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>9.66</v>
+        <v>12.5</v>
       </c>
       <c r="AF19" s="3" t="n">
         <v>11.5492957746479</v>
@@ -2852,11 +2856,11 @@
       <c r="AB20" s="3" t="n">
         <v>0.536582379232229</v>
       </c>
-      <c r="AD20" s="0" t="n">
-        <v>3.66</v>
+      <c r="AD20" s="3" t="n">
+        <v>2.57165149544863</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="AF20" s="3" t="n">
         <v>59.0601503759399</v>
@@ -2971,11 +2975,11 @@
       <c r="AB21" s="3" t="n">
         <v>0.590070757452732</v>
       </c>
-      <c r="AD21" s="0" t="n">
-        <v>4.66</v>
+      <c r="AD21" s="3" t="n">
+        <v>1.47817119284978</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>4.66</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="3" t="n">
         <v>1.93470374848851</v>
@@ -3090,11 +3094,11 @@
       <c r="AB22" s="3" t="n">
         <v>0.511047788106694</v>
       </c>
-      <c r="AD22" s="0" t="n">
-        <v>0.66</v>
+      <c r="AD22" s="3" t="n">
+        <v>0.30644593166608</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="3" t="n">
         <v>24.2835595776772</v>
@@ -3287,7 +3291,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/interim/economical/calibration_data/ERMG_temporary_unemployment.xlsx
+++ b/data/interim/economical/calibration_data/ERMG_temporary_unemployment.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">01</t>
   </si>
@@ -214,7 +211,7 @@
     <t xml:space="preserve">97-98</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
+    <t xml:space="preserve">BE</t>
   </si>
 </sst>
 </file>
@@ -432,11 +429,11 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE23" activeCellId="0" sqref="AE23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -449,217 +446,215 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="49.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="29.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="28.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AS1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="BM1" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,7 +3286,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
